--- a/Excels/WP物品表.xlsx
+++ b/Excels/WP物品表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="物品表" sheetId="1" r:id="rId1"/>
@@ -13,49 +13,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不填用的是game.doer.item.Item类
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不填用的是Item类
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>#name item</t>
+    <t>#name CfgItem</t>
   </si>
   <si>
     <t>#index unique id</t>
@@ -73,28 +37,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>class_path_lua</t>
-  </si>
-  <si>
-    <t>class_path_cs</t>
-  </si>
-  <si>
-    <t>type_1</t>
-  </si>
-  <si>
-    <t>type_2</t>
-  </si>
-  <si>
-    <t>can_fold</t>
-  </si>
-  <si>
-    <t>quality_id</t>
-  </si>
-  <si>
-    <t>bg_path</t>
-  </si>
-  <si>
-    <t>icon_path</t>
+    <t>classPathLua</t>
+  </si>
+  <si>
+    <t>classPathCs</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>isCanFold</t>
+  </si>
+  <si>
+    <t>qualityId</t>
+  </si>
+  <si>
+    <t>bgPath</t>
+  </si>
+  <si>
+    <t>iconPath</t>
   </si>
   <si>
     <t>名字</t>
@@ -153,12 +117,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +149,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -192,15 +196,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,38 +241,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,75 +284,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -348,6 +307,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,175 +373,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,39 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,21 +527,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +551,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -659,151 +618,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1143,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1219,7 +1178,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="13.5" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="13.5" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="13.5" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1436,6 +1395,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>